--- a/statistics/methods_accuracy.xlsx
+++ b/statistics/methods_accuracy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8130"/>
   </bookViews>
   <sheets>
     <sheet name="points_generation" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,40 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+topology [2,50,50,50,2]</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
@@ -225,7 +259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="51">
   <si>
     <t>points generation method</t>
   </si>
@@ -233,15 +267,6 @@
     <t>random</t>
   </si>
   <si>
-    <t>hl_1</t>
-  </si>
-  <si>
-    <t>hl_2</t>
-  </si>
-  <si>
-    <t>hl_3</t>
-  </si>
-  <si>
     <t>lambda_1</t>
   </si>
   <si>
@@ -351,6 +376,42 @@
   </si>
   <si>
     <t>48 min</t>
+  </si>
+  <si>
+    <t>fourth</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>0.009</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>points_am</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>third</t>
+  </si>
+  <si>
+    <t>72min</t>
+  </si>
+  <si>
+    <t>76min</t>
+  </si>
+  <si>
+    <t>50min</t>
   </si>
 </sst>
 </file>
@@ -511,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -519,16 +580,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -544,6 +601,14 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -847,329 +912,522 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="19">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5000</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E4" s="19">
+        <v>5000</v>
+      </c>
+      <c r="F4" s="5">
+        <v>5000</v>
+      </c>
+      <c r="G4" s="5">
+        <v>5000</v>
+      </c>
+      <c r="H4" s="2">
+        <v>5000</v>
+      </c>
+      <c r="I4" s="4">
+        <v>3000</v>
+      </c>
+      <c r="J4" s="29"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5</v>
+      </c>
+      <c r="E5" s="19">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
+      <c r="I5" s="4">
+        <v>5</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E6" s="20">
+        <v>10000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="8">
+        <v>11.8767170082963</v>
+      </c>
+      <c r="C7" s="28">
+        <v>6.2076491042409199</v>
+      </c>
+      <c r="D7" s="28">
+        <v>39.251194711461601</v>
+      </c>
+      <c r="E7" s="21">
+        <v>3.9559122558756199</v>
+      </c>
+      <c r="F7" s="9">
+        <v>7.5833568583690996</v>
+      </c>
+      <c r="G7" s="9">
+        <v>4.5391869345976303</v>
+      </c>
+      <c r="H7" s="8">
+        <v>56.389633232039799</v>
+      </c>
+      <c r="I7" s="28">
+        <v>5.9172277063005101</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="8">
+        <v>9.1757703084141493</v>
+      </c>
+      <c r="C8" s="28">
+        <v>4.3398341586636899</v>
+      </c>
+      <c r="D8" s="28">
+        <v>27.3247109413768</v>
+      </c>
+      <c r="E8" s="21">
+        <v>2.8796219949957802</v>
+      </c>
+      <c r="F8" s="9">
+        <v>5.1745168153131296</v>
+      </c>
+      <c r="G8" s="9">
+        <v>3.4407348266925202</v>
+      </c>
+      <c r="H8" s="8">
+        <v>31.760907934711799</v>
+      </c>
+      <c r="I8" s="28">
+        <v>1.1997612331688701</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="8">
+        <v>17.596920222971299</v>
+      </c>
+      <c r="C9" s="28">
+        <v>7.7773013616946303</v>
+      </c>
+      <c r="D9" s="28">
+        <v>46.580315366237599</v>
+      </c>
+      <c r="E9" s="21">
+        <v>4.1874847280087204</v>
+      </c>
+      <c r="F9" s="9">
+        <v>8.84186480737851</v>
+      </c>
+      <c r="G9" s="9">
+        <v>4.7948758910564502</v>
+      </c>
+      <c r="H9" s="8">
+        <v>66.024158436199102</v>
+      </c>
+      <c r="I9" s="28">
+        <v>16.170387745274802</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="8">
+        <v>13.839684383615101</v>
+      </c>
+      <c r="C10" s="28">
+        <v>5.4799763676686997</v>
+      </c>
+      <c r="D10" s="28">
+        <v>33.344378229929198</v>
+      </c>
+      <c r="E10" s="21">
+        <v>3.1438755625284398</v>
+      </c>
+      <c r="F10" s="9">
+        <v>6.1120000112054198</v>
+      </c>
+      <c r="G10" s="9">
+        <v>3.7433627849127502</v>
+      </c>
+      <c r="H10" s="8">
+        <v>39.652044551245297</v>
+      </c>
+      <c r="I10" s="28">
+        <v>7.5228930244598402</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0.31026022144110799</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0.33497327898624801</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0.28831043025867598</v>
+      </c>
+      <c r="E11" s="21">
+        <v>0.34088298812789197</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.34059705685745001</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.34510485477226099</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.352880084473639</v>
+      </c>
+      <c r="I11" s="28">
+        <v>0.16551757108927501</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="31">
+        <v>3.2150000000000002E-5</v>
+      </c>
+      <c r="C13" s="11">
+        <v>3.6200999999999998E-3</v>
+      </c>
+      <c r="D13" s="33">
+        <v>1.24988E-4</v>
+      </c>
+      <c r="E13" s="23">
+        <v>3.2718000000000001E-3</v>
+      </c>
+      <c r="F13" s="7">
+        <v>6.6369999999999997E-3</v>
+      </c>
+      <c r="G13" s="7">
+        <v>3.9659999999999999E-3</v>
+      </c>
+      <c r="H13" s="26">
+        <v>7.0435670000000005E-5</v>
+      </c>
+      <c r="I13" s="12">
+        <v>1.0145999999999999E-4</v>
+      </c>
+      <c r="J13" s="26"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="21">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B14" s="32">
+        <v>8.2370844391567097E-2</v>
+      </c>
+      <c r="C14" s="11">
+        <v>9.6019999999999994E-2</v>
+      </c>
+      <c r="D14" s="11">
+        <v>7.1128234688465006E-2</v>
+      </c>
+      <c r="E14" s="23">
+        <v>9.9430000000000004E-2</v>
+      </c>
+      <c r="F14" s="7">
+        <v>9.9269999999999997E-2</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.1019</v>
+      </c>
+      <c r="H14" s="26">
+        <v>0.106555438151579</v>
+      </c>
+      <c r="I14" s="12">
+        <v>2.3442802618259699E-2</v>
+      </c>
+      <c r="J14" s="26"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1000</v>
-      </c>
-      <c r="C4" s="21">
-        <v>1000</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3">
-        <v>10000</v>
-      </c>
-      <c r="C5" s="22">
-        <v>10000</v>
-      </c>
-      <c r="D5" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E5" s="1">
-        <v>10000</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="9">
-        <v>6.2076491042409199</v>
-      </c>
-      <c r="C6" s="23">
-        <v>3.9559122558756199</v>
-      </c>
-      <c r="D6" s="10">
-        <v>7.5833568583690996</v>
-      </c>
-      <c r="E6" s="10">
-        <v>4.5391869345976303</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="9">
-        <v>4.3398341586636899</v>
-      </c>
-      <c r="C7" s="23">
-        <v>2.8796219949957802</v>
-      </c>
-      <c r="D7" s="10">
-        <v>5.1745168153131296</v>
-      </c>
-      <c r="E7" s="10">
-        <v>3.4407348266925202</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="9">
-        <v>7.7773013616946303</v>
-      </c>
-      <c r="C8" s="23">
-        <v>4.1874847280087204</v>
-      </c>
-      <c r="D8" s="10">
-        <v>8.84186480737851</v>
-      </c>
-      <c r="E8" s="10">
-        <v>4.7948758910564502</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="9">
-        <v>5.4799763676686997</v>
-      </c>
-      <c r="C9" s="23">
-        <v>3.1438755625284398</v>
-      </c>
-      <c r="D9" s="10">
-        <v>6.1120000112054198</v>
-      </c>
-      <c r="E9" s="10">
-        <v>3.7433627849127502</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="9">
-        <v>0.33497327898624801</v>
-      </c>
-      <c r="C10" s="23">
-        <v>0.34088298812789197</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0.34059705685745001</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0.34510485477226099</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="7">
-        <v>3.6200999999999998E-3</v>
-      </c>
-      <c r="C12" s="25">
-        <v>3.2718000000000001E-3</v>
-      </c>
-      <c r="D12" s="8">
-        <v>6.6369999999999997E-3</v>
-      </c>
-      <c r="E12" s="8">
-        <v>3.9659999999999999E-3</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="7">
-        <v>9.6019999999999994E-2</v>
-      </c>
-      <c r="C13" s="25">
-        <v>9.9430000000000004E-2</v>
-      </c>
-      <c r="D13" s="8">
-        <v>9.9269999999999997E-2</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0.1019</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="7">
+      <c r="B15" s="32">
+        <v>0.31026022144110799</v>
+      </c>
+      <c r="C15" s="11">
         <v>0.29449999999999998</v>
       </c>
-      <c r="C14" s="26">
+      <c r="D15" s="11">
+        <v>0.28831043025867598</v>
+      </c>
+      <c r="E15" s="24">
         <v>0.2994</v>
       </c>
-      <c r="D14" s="8">
+      <c r="F15" s="7">
         <v>0.2954</v>
       </c>
-      <c r="E14" s="8">
+      <c r="G15" s="7">
         <v>0.30030000000000001</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="4"/>
+      <c r="H15" s="32">
+        <v>0.352880084473639</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0.16551757108927501</v>
+      </c>
+      <c r="J15" s="30"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1177,8 +1435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,111 +1451,111 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="15">
+        <v>22</v>
+      </c>
+      <c r="B2" s="13">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="17">
+      <c r="C2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="15">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>8</v>
+      <c r="E2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="15">
+        <v>23</v>
+      </c>
+      <c r="B3" s="13">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="17">
+      <c r="C3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="15">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>8</v>
+      <c r="E3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="15">
+        <v>24</v>
+      </c>
+      <c r="B4" s="13">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="17">
+      <c r="C4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="15">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>8</v>
+      <c r="E4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3">
         <v>10000</v>
@@ -1323,217 +1581,217 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="9">
+        <v>17</v>
+      </c>
+      <c r="B6" s="8">
         <v>11.100854060101099</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>17.480123743401599</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="17">
         <v>34.486363569054198</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>10.091394108097701</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>11.6124347662769</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="25">
         <v>77.465445981836496</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="25">
         <v>11.444470286205901</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="9">
+        <v>18</v>
+      </c>
+      <c r="B7" s="8">
         <v>7.4120986000853</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>14.315323888801499</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="17">
         <v>25.506791758968401</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>7.8807060223510597</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>9.7628993640719397</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="25">
         <v>75.861810741514603</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="25">
         <v>9.5913579980192196</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="9">
+        <v>19</v>
+      </c>
+      <c r="B8" s="8">
         <v>13.599894517340701</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>24.642133552234899</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="17">
         <v>40.205018676711703</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>15.0999099976131</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>15.033205151491799</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="25">
         <v>82.2230039434003</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="25">
         <v>14.641017209956599</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="9">
+        <v>20</v>
+      </c>
+      <c r="B9" s="8">
         <v>10.2429988006741</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>20.490491444585299</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="17">
         <v>30.177579478607999</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>12.5136173254499</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>12.3585244021065</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="25">
         <v>80.7082463585444</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="25">
         <v>12.031325173505</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8">
         <v>0.33760843770004101</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>0.31513455089696002</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="17">
         <v>0.29249955105589398</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>0.334062631738553</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>0.33463598236651299</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="25">
         <v>0.64678294551304605</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="25">
         <v>0.32732949382418602</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>40</v>
+        <v>14</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="28">
+        <v>12</v>
+      </c>
+      <c r="B12" s="26">
         <v>3.5974204074591398E-3</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="27">
         <v>7.3728784918785E-3</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="27">
         <v>5.7499999999999999E-3</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="27">
         <v>1.58949E-3</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="27">
         <v>2.4840000000000001E-3</v>
       </c>
       <c r="G12" s="6">
         <v>0.11135</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="27">
         <v>2.7529999999999998E-3</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
       <c r="D14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+        <v>26</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D15" s="17">
+      <c r="D15" s="15">
         <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D16" s="17">
+      <c r="D16" s="15">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="17">
+      <c r="D17" s="15">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
@@ -1543,57 +1801,57 @@
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>38.2706756963956</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>30.038102903354201</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <v>45.049931806457998</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <v>35.110156281979599</v>
       </c>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="10">
+      <c r="D23" s="9">
         <v>0.30062483827744002</v>
       </c>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="11" t="s">
-        <v>32</v>
+      <c r="D24" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>9.61671024560928E-3</v>
       </c>
     </row>
     <row r="27" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D27" s="18" t="s">
-        <v>29</v>
+      <c r="D27" s="16" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D28" s="17">
+      <c r="D28" s="15">
         <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="29" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D29" s="17">
+      <c r="D29" s="15">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="30" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D30" s="17">
+      <c r="D30" s="15">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
@@ -1603,37 +1861,37 @@
       </c>
     </row>
     <row r="32" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D32" s="10">
+      <c r="D32" s="9">
         <v>7.6708232262000102</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" s="10">
+      <c r="D33" s="9">
         <v>5.9854411848357101</v>
       </c>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D34" s="10">
+      <c r="D34" s="9">
         <v>9.1022908376665299</v>
       </c>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D35" s="10">
+      <c r="D35" s="9">
         <v>7.1412062298437897</v>
       </c>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D36" s="10">
+      <c r="D36" s="9">
         <v>0.33914860749648601</v>
       </c>
     </row>
     <row r="37" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D37" s="11" t="s">
-        <v>33</v>
+      <c r="D37" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D38" s="8">
+      <c r="D38" s="7">
         <v>8.0303521826863202E-4</v>
       </c>
     </row>
